--- a/doc/数据统计-易亚宁-吴玄.xlsx
+++ b/doc/数据统计-易亚宁-吴玄.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GaohrWS\topgeoscience.github.io\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C9A897C-8DBF-490D-833E-9CFF41DC0824}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76F26D49-8269-406D-B872-0F4E01824012}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="600" windowWidth="25890" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -49,74 +49,85 @@
     <t>栅格</t>
   </si>
   <si>
+    <t>78.5M</t>
+  </si>
+  <si>
+    <t>易亚宁</t>
+  </si>
+  <si>
+    <t>1.56G</t>
+  </si>
+  <si>
+    <t>SRTM数据主要是由美国航空航天局（NASA）和国防部国家测绘局（NIMA)联合测量的，SRTM的全称Shuttle Radar Topography Mission，即航天飞机雷达地形测绘使命。SRTM的数据是用16位的数值表示高程数值的，最大的正高程9000m，负高程海平面以下12000m。本数据格式为TIFF格式。</t>
+  </si>
+  <si>
+    <t>442M</t>
+  </si>
+  <si>
+    <t>遥感</t>
+  </si>
+  <si>
+    <t>416M</t>
+  </si>
+  <si>
+    <t>吴玄</t>
+  </si>
+  <si>
+    <t>137G</t>
+  </si>
+  <si>
+    <t>12.4G</t>
+  </si>
+  <si>
     <t>全球 1KM 分辨率 DEM 数据</t>
-  </si>
-  <si>
-    <t>78.5M</t>
-  </si>
-  <si>
-    <t>易亚宁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>SRTM数据主要是由美国航空航天局（NASA）和国防部国家测绘局（NIMA)联合测量的，SRTM的全称Shuttle Radar Topography Mission，即航天飞机雷达地形测绘使命。SRTM的数据是用16位的数值表示高程数值的，最大的正高程9000m，负高程海平面以下12000m。本数据格式为IMG格式。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>全球 30m 分辨率 DEM 数据</t>
-  </si>
-  <si>
-    <t>1.56G</t>
-  </si>
-  <si>
-    <t>SRTM数据主要是由美国航空航天局（NASA）和国防部国家测绘局（NIMA)联合测量的，SRTM的全称Shuttle Radar Topography Mission，即航天飞机雷达地形测绘使命。SRTM的数据是用16位的数值表示高程数值的，最大的正高程9000m，负高程海平面以下12000m。本数据格式为TIFF格式。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>全球 500m 植被覆盖图</t>
-  </si>
-  <si>
-    <t>442M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>该数据采用 2008年 MODIS (Terra &amp; Aqua) 数据制作而成，分辨率为500米，坐标系统为 WGS84。使用该数据请标注"Geospatial Information Authority of Japan, Chiba University and collaborating organizations."</t>
-  </si>
-  <si>
-    <t>遥感</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>遥感场景分类数据集</t>
-  </si>
-  <si>
-    <t>416M</t>
-  </si>
-  <si>
-    <t>吴玄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image-Net比赛数据集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ISPRS语义分割比赛数据集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> UC Merced Land-Use数据集包括21类场景，每类100张  WHU-RS数据集包括19类场景  每类50张左右</t>
-  </si>
-  <si>
-    <t>Image-Net比赛数据集</t>
-  </si>
-  <si>
-    <t>137G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2012年ImageNet比赛所用的数据集，总共1000类</t>
-  </si>
-  <si>
-    <t>ISPRS语义分割比赛数据集</t>
-  </si>
-  <si>
-    <t>12.4G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ISPRS语义分割比赛POSTAM地区数据集，总共6个地类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -127,6 +138,15 @@
     <font>
       <sz val="9"/>
       <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -166,7 +186,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -176,6 +196,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -455,7 +481,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -495,17 +521,17 @@
       <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>11</v>
+      <c r="F2" s="5" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="85.5" x14ac:dyDescent="0.2">
@@ -515,17 +541,17 @@
       <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>12</v>
+      <c r="C3" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="57" x14ac:dyDescent="0.2">
@@ -535,76 +561,76 @@
       <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>15</v>
+      <c r="C4" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>19</v>
+      <c r="C5" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>22</v>
+        <v>15</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>23</v>
+      <c r="C6" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>25</v>
+        <v>15</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>26</v>
+      <c r="C7" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>28</v>
       </c>
     </row>
